--- a/039-madera-county/final.xlsx
+++ b/039-madera-county/final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26240" yWindow="1680" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="-32240" yWindow="1680" windowWidth="31600" windowHeight="25960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="totals" sheetId="3" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="5" r:id="rId9"/>
-    <pivotCache cacheId="8" r:id="rId10"/>
+    <pivotCache cacheId="31" r:id="rId8"/>
+    <pivotCache cacheId="32" r:id="rId9"/>
+    <pivotCache cacheId="33" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1653,8 +1653,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1736,7 +1742,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1760,6 +1766,9 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1783,6 +1792,9 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -13113,7 +13125,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F107" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -13581,7 +13593,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C107" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14034,7 +14046,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:AI107" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
@@ -14971,10 +14983,13 @@
   <dimension ref="A1:AQ69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" t="s">
@@ -23365,16 +23380,16 @@
         <v>458</v>
       </c>
       <c r="B65" s="9">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C65" s="9">
-        <v>1457</v>
+        <v>1416</v>
       </c>
       <c r="D65" s="9">
         <v>85</v>
       </c>
       <c r="E65" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F65" s="9">
         <v>7</v>
@@ -23383,112 +23398,112 @@
         <v>0</v>
       </c>
       <c r="H65" s="10">
-        <v>989</v>
+        <v>971</v>
       </c>
       <c r="I65" s="10">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="J65" s="10">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="K65" s="10">
-        <v>1446</v>
+        <v>1408</v>
       </c>
       <c r="L65" s="10">
-        <v>1253</v>
+        <v>1226</v>
       </c>
       <c r="M65" s="10">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="N65" s="10">
-        <v>1195</v>
+        <v>1169</v>
       </c>
       <c r="O65" s="10">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="P65" s="10">
-        <v>1503</v>
+        <v>1475</v>
       </c>
       <c r="Q65" s="10">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="R65" s="10">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="S65" s="10">
-        <v>1193</v>
+        <v>1156</v>
       </c>
       <c r="T65" s="10">
+        <v>1064</v>
+      </c>
+      <c r="U65" s="10">
+        <v>1229</v>
+      </c>
+      <c r="V65" s="10">
+        <v>911</v>
+      </c>
+      <c r="W65" s="10">
+        <v>1325</v>
+      </c>
+      <c r="X65" s="10">
+        <v>1312</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>924</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>851</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>1303</v>
+      </c>
+      <c r="AB65" s="10">
+        <v>809</v>
+      </c>
+      <c r="AC65" s="10">
+        <v>1359</v>
+      </c>
+      <c r="AD65" s="10">
+        <v>698</v>
+      </c>
+      <c r="AE65" s="10">
+        <v>1519</v>
+      </c>
+      <c r="AF65" s="10">
+        <v>752</v>
+      </c>
+      <c r="AG65" s="10">
+        <v>1514</v>
+      </c>
+      <c r="AH65" s="10">
+        <v>725</v>
+      </c>
+      <c r="AI65" s="10">
+        <v>1561</v>
+      </c>
+      <c r="AJ65" s="10">
         <v>1089</v>
       </c>
-      <c r="U65" s="10">
-        <v>1257</v>
-      </c>
-      <c r="V65" s="10">
-        <v>924</v>
-      </c>
-      <c r="W65" s="10">
-        <v>1363</v>
-      </c>
-      <c r="X65" s="10">
-        <v>1333</v>
-      </c>
-      <c r="Y65" s="10">
-        <v>954</v>
-      </c>
-      <c r="Z65" s="10">
-        <v>862</v>
-      </c>
-      <c r="AA65" s="10">
-        <v>1342</v>
-      </c>
-      <c r="AB65" s="10">
-        <v>824</v>
-      </c>
-      <c r="AC65" s="10">
-        <v>1392</v>
-      </c>
-      <c r="AD65" s="10">
-        <v>717</v>
-      </c>
-      <c r="AE65" s="10">
-        <v>1552</v>
-      </c>
-      <c r="AF65" s="10">
-        <v>762</v>
-      </c>
-      <c r="AG65" s="10">
-        <v>1557</v>
-      </c>
-      <c r="AH65" s="10">
-        <v>739</v>
-      </c>
-      <c r="AI65" s="10">
-        <v>1599</v>
-      </c>
-      <c r="AJ65" s="10">
-        <v>1108</v>
-      </c>
       <c r="AK65" s="10">
-        <v>1241</v>
+        <v>1207</v>
       </c>
       <c r="AL65" s="10">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="AM65" s="10">
-        <v>1581</v>
+        <v>1541</v>
       </c>
       <c r="AN65" s="10">
-        <v>1191</v>
+        <v>1166</v>
       </c>
       <c r="AO65" s="10">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="AP65" s="10">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="AQ65" s="10">
-        <v>1457</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="66" spans="1:43">
